--- a/sorted_speed_data.xlsx
+++ b/sorted_speed_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ba3ab8c13100321/デスクトップ/traffic-simulation-de/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_098D5732504F411FBDC2DAF0505ED87656CC1601" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_098D91BAD3B0576B89E3C4F0505ED87656CC1635" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23070" yWindow="4215" windowWidth="23595" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Combined_Detectors" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -363,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CP1" workbookViewId="0">
-      <selection activeCell="DE11" sqref="DE11"/>
+    <sheetView tabSelected="1" topLeftCell="CQ1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:DI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7533,6 +7533,5 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>